--- a/biology/Zoologie/Henri_Frédéric_Paul_Gervais/Henri_Frédéric_Paul_Gervais.xlsx
+++ b/biology/Zoologie/Henri_Frédéric_Paul_Gervais/Henri_Frédéric_Paul_Gervais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henri_Fr%C3%A9d%C3%A9ric_Paul_Gervais</t>
+          <t>Henri_Frédéric_Paul_Gervais</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri Frédéric Paul Gervais, né le 24 novembre 1845 à Paris et mort le 12 janvier 1915 à Larchant (Seine-et-Marne), est un ichtyologiste français qui  travaillait au Muséum national d'histoire naturelle. C'est le fils du zoologiste et paléontologue français Paul Gervais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henri_Fr%C3%A9d%C3%A9ric_Paul_Gervais</t>
+          <t>Henri_Frédéric_Paul_Gervais</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henri_Fr%C3%A9d%C3%A9ric_Paul_Gervais</t>
+          <t>Henri_Frédéric_Paul_Gervais</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Henri Frédéric Paul Gervais, Les poissons ; synonymie--description--mœurs--frai--pêche--iconographie, des espèces composant plus particulièrement la faune française, 1877.
 Henri Frédéric Paul Gervais et Florentino Ameghino, Les mammifères fossiles de l'Amérique du Sud, F. Savy, 1880, 225 p..</t>
